--- a/chiloPro/template-series_english/structure-books_english.xlsx
+++ b/chiloPro/template-series_english/structure-books_english.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitsuhashi\Desktop\xlsx kansei\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\chilo-producer\chiloPro\template-series_english\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -154,10 +154,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>vol（required）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <t>c</t>
     </r>
@@ -181,10 +177,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>identifier</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>revised</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -329,12 +321,6 @@
     <t>Outline of each CHiLO Book
 ────────────
 This will be inserted in "book-summary" of "README"section.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Unique ID of CHiLO Book
-──────────────────
-It will be set in content.opf.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -403,6 +389,20 @@
     <t>* Required
 * The language will be listed as "ja", "en" according to the RFC 5646 format.</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>vol（required）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>identifier（required）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（required）Unique ID of CHiLO Book
+──────────────────
+It will be set in content.opf.</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -974,7 +974,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1117,10 +1117,6 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1153,6 +1149,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1236,13 +1239,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1592,11 +1588,11 @@
       <c r="B1" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>61</v>
+      <c r="C1" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1604,11 +1600,11 @@
         <v>4</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>79</v>
+      <c r="C2" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -1616,11 +1612,11 @@
         <v>3</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>62</v>
+      <c r="C3" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1628,11 +1624,11 @@
         <v>1</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="61" t="s">
-        <v>45</v>
+      <c r="C4" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -1640,51 +1636,51 @@
         <v>6</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="61"/>
+      <c r="C5" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="62"/>
     </row>
     <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="30"/>
-      <c r="C6" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="61"/>
+      <c r="C6" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="62"/>
     </row>
     <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B7" s="31"/>
-      <c r="C7" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="61"/>
+      <c r="C7" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="62"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="61"/>
+      <c r="C8" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="62"/>
     </row>
     <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="45" t="s">
-        <v>51</v>
+      <c r="C9" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -1692,11 +1688,11 @@
         <v>8</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>53</v>
+      <c r="C10" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -1704,11 +1700,11 @@
         <v>9</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="45" t="s">
-        <v>55</v>
+      <c r="C11" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -1716,34 +1712,34 @@
         <v>10</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="45" t="s">
-        <v>57</v>
+      <c r="C12" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="54"/>
+      <c r="A14" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="54"/>
+      <c r="C14" s="55"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="55"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="57"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="58"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="55"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="57"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="58"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="58"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="60"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1777,70 +1773,70 @@
     <col min="6" max="6" width="38.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:6" s="42" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="42" t="s">
+      <c r="E1" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="41" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="43" customFormat="1" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" s="42" customFormat="1" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="36"/>
       <c r="C2" s="37"/>
       <c r="D2" s="33"/>
-      <c r="E2" s="41"/>
+      <c r="E2" s="32"/>
       <c r="F2" s="38"/>
     </row>
-    <row r="3" spans="1:6" s="43" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" s="42" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="39"/>
       <c r="B3" s="34"/>
       <c r="C3" s="40"/>
       <c r="D3" s="34"/>
-      <c r="E3" s="41"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="38"/>
     </row>
-    <row r="4" spans="1:6" s="43" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" s="42" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="39"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
-      <c r="E4" s="41"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="34"/>
     </row>
     <row r="5" spans="1:6" s="5" customFormat="1" ht="142.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="D5" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="48" t="s">
         <v>67</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="49" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -1865,39 +1861,39 @@
     </row>
     <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19"/>
-      <c r="B9" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="63"/>
-      <c r="D9" s="64"/>
+      <c r="B9" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="64"/>
+      <c r="D9" s="65"/>
       <c r="F9" s="19"/>
     </row>
     <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="67"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="68"/>
       <c r="F10" s="19"/>
     </row>
     <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="19"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="67"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="68"/>
       <c r="F11" s="19"/>
     </row>
     <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="19"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="67"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="68"/>
       <c r="F12" s="19"/>
     </row>
     <row r="13" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="19"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="70"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="71"/>
       <c r="F13" s="19"/>
     </row>
   </sheetData>
@@ -1938,13 +1934,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D1" s="25" t="s">
         <v>29</v>
@@ -1962,7 +1958,7 @@
         <v>18</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J1" s="21" t="s">
         <v>19</v>
@@ -1970,8 +1966,8 @@
       <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="80"/>
-      <c r="B2" s="81"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
       <c r="E2" s="6"/>
@@ -1983,8 +1979,8 @@
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="80"/>
-      <c r="B3" s="81"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
       <c r="E3" s="6"/>
@@ -1996,8 +1992,8 @@
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="80"/>
-      <c r="B4" s="81"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
       <c r="E4" s="6"/>
@@ -2008,8 +2004,8 @@
       <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="80"/>
-      <c r="B5" s="81"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
       <c r="E5" s="6"/>
@@ -2020,8 +2016,8 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="80"/>
-      <c r="B6" s="81"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
       <c r="E6" s="6"/>
@@ -2032,8 +2028,8 @@
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="80"/>
-      <c r="B7" s="81"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
       <c r="E7" s="6"/>
@@ -2044,8 +2040,8 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="80"/>
-      <c r="B8" s="81"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
       <c r="E8" s="6"/>
@@ -2056,8 +2052,8 @@
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="80"/>
-      <c r="B9" s="81"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
       <c r="E9" s="6"/>
@@ -2068,8 +2064,8 @@
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="80"/>
-      <c r="B10" s="81"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
       <c r="E10" s="6"/>
@@ -2080,8 +2076,8 @@
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="80"/>
-      <c r="B11" s="81"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
       <c r="E11" s="6"/>
@@ -2092,8 +2088,8 @@
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="80"/>
-      <c r="B12" s="81"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
       <c r="E12" s="6"/>
@@ -2105,8 +2101,8 @@
       <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="80"/>
-      <c r="B13" s="81"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="6"/>
       <c r="D13" s="7"/>
       <c r="E13" s="6"/>
@@ -2118,8 +2114,8 @@
       <c r="K13" s="13"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="80"/>
-      <c r="B14" s="81"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="6"/>
       <c r="D14" s="7"/>
       <c r="E14" s="6"/>
@@ -2131,8 +2127,8 @@
       <c r="K14" s="14"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="80"/>
-      <c r="B15" s="81"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
       <c r="E15" s="6"/>
@@ -2144,8 +2140,8 @@
       <c r="K15" s="15"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="80"/>
-      <c r="B16" s="81"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="6"/>
       <c r="D16" s="7"/>
       <c r="E16" s="6"/>
@@ -2157,8 +2153,8 @@
       <c r="K16" s="15"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="80"/>
-      <c r="B17" s="81"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
       <c r="E17" s="6"/>
@@ -2169,8 +2165,8 @@
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18" s="80"/>
-      <c r="B18" s="81"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="6"/>
       <c r="D18" s="7"/>
       <c r="E18" s="6"/>
@@ -2196,35 +2192,35 @@
       </c>
     </row>
     <row r="20" spans="1:11" s="20" customFormat="1" ht="189" x14ac:dyDescent="0.15">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="47" t="s">
+      <c r="D20" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="47" t="s">
+      <c r="I20" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" s="46" t="s">
         <v>75</v>
-      </c>
-      <c r="G20" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="H20" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="I20" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="J20" s="47" t="s">
-        <v>78</v>
       </c>
       <c r="K20" s="13"/>
     </row>
@@ -2237,54 +2233,54 @@
       <c r="K22" s="29"/>
     </row>
     <row r="23" spans="1:11" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="71" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="73"/>
+      <c r="B23" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="74"/>
       <c r="K23" s="9"/>
     </row>
     <row r="24" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="74"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="76"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="77"/>
       <c r="K24" s="9"/>
     </row>
     <row r="25" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="74"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="76"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="77"/>
       <c r="K25" s="9"/>
     </row>
     <row r="26" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="74"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="76"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="77"/>
       <c r="K26" s="9"/>
     </row>
     <row r="27" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="74"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="76"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="77"/>
       <c r="K27" s="9"/>
     </row>
     <row r="28" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="74"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="76"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="77"/>
       <c r="K28" s="9"/>
     </row>
     <row r="29" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="77"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="79"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="80"/>
       <c r="K29" s="9"/>
     </row>
   </sheetData>

--- a/chiloPro/template-series_english/structure-books_english.xlsx
+++ b/chiloPro/template-series_english/structure-books_english.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\chilo-producer\chiloPro\template-series_english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CHiLO-Producer_pri\chiloPro\template-series_english\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="827"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="827" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="series-information" sheetId="1" r:id="rId1"/>
@@ -154,26 +154,17 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>over</t>
-    </r>
+    <t>vol（required）</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Cover Image
 ―――――――――――――
 Name of file with cover image (leave blank when there is no cover image).</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>identifier</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -321,6 +312,12 @@
     <t>Outline of each CHiLO Book
 ────────────
 This will be inserted in "book-summary" of "README"section.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unique ID of CHiLO Book
+──────────────────
+It will be set in content.opf.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -391,17 +388,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>vol（required）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>identifier（required）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>（required）Unique ID of CHiLO Book
-──────────────────
-It will be set in content.opf.</t>
+    <t>book-cover</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -974,7 +961,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1115,6 +1102,10 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -1570,7 +1561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1588,11 +1579,11 @@
       <c r="B1" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="44" t="s">
-        <v>59</v>
+      <c r="C1" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1600,11 +1591,11 @@
         <v>4</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="44" t="s">
-        <v>76</v>
+      <c r="C2" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -1612,11 +1603,11 @@
         <v>3</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>60</v>
+      <c r="C3" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1624,11 +1615,11 @@
         <v>1</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="62" t="s">
+      <c r="C4" s="44" t="s">
         <v>43</v>
+      </c>
+      <c r="D4" s="63" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -1636,51 +1627,51 @@
         <v>6</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="62"/>
+      <c r="C5" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="63"/>
     </row>
     <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="30"/>
-      <c r="C6" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="62"/>
+      <c r="C6" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="63"/>
     </row>
     <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" s="31"/>
-      <c r="C7" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="62"/>
+      <c r="C7" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="63"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="62"/>
+      <c r="C8" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="63"/>
     </row>
     <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="44" t="s">
+      <c r="C9" s="44" t="s">
         <v>49</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -1688,11 +1679,11 @@
         <v>8</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="44" t="s">
+      <c r="C10" s="44" t="s">
         <v>51</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -1700,11 +1691,11 @@
         <v>9</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="44" t="s">
+      <c r="C11" s="46" t="s">
         <v>53</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -1712,34 +1703,34 @@
         <v>10</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="44" t="s">
+      <c r="C12" s="46" t="s">
         <v>55</v>
       </c>
+      <c r="D12" s="45" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="55"/>
+      <c r="A14" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="55"/>
+      <c r="C14" s="56"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="56"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="58"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="59"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="56"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="58"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="59"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="59"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="61"/>
+      <c r="A17" s="60"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1761,7 +1752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1773,70 +1764,70 @@
     <col min="6" max="6" width="38.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="42" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="41" t="s">
+    <row r="1" spans="1:6" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="41" t="s">
+      <c r="D1" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="42" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="42" customFormat="1" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" s="43" customFormat="1" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="36"/>
       <c r="C2" s="37"/>
       <c r="D2" s="33"/>
-      <c r="E2" s="32"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="38"/>
     </row>
-    <row r="3" spans="1:6" s="42" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" s="43" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="39"/>
       <c r="B3" s="34"/>
       <c r="C3" s="40"/>
       <c r="D3" s="34"/>
-      <c r="E3" s="32"/>
+      <c r="E3" s="41"/>
       <c r="F3" s="38"/>
     </row>
-    <row r="4" spans="1:6" s="42" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" s="43" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="39"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
-      <c r="E4" s="32"/>
+      <c r="E4" s="41"/>
       <c r="F4" s="34"/>
     </row>
     <row r="5" spans="1:6" s="5" customFormat="1" ht="142.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="47" t="s">
+      <c r="A5" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="B5" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="C5" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="48" t="s">
-        <v>67</v>
+      <c r="E5" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -1861,39 +1852,39 @@
     </row>
     <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19"/>
-      <c r="B9" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="65"/>
+      <c r="B9" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="65"/>
+      <c r="D9" s="66"/>
       <c r="F9" s="19"/>
     </row>
     <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="68"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="69"/>
       <c r="F10" s="19"/>
     </row>
     <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="19"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="68"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="69"/>
       <c r="F11" s="19"/>
     </row>
     <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="19"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="68"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="69"/>
       <c r="F12" s="19"/>
     </row>
     <row r="13" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="19"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="71"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="72"/>
       <c r="F13" s="19"/>
     </row>
   </sheetData>
@@ -1934,13 +1925,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="25" t="s">
         <v>29</v>
@@ -1958,7 +1949,7 @@
         <v>18</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J1" s="21" t="s">
         <v>19</v>
@@ -1966,8 +1957,8 @@
       <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="51"/>
-      <c r="B2" s="52"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
       <c r="E2" s="6"/>
@@ -1979,8 +1970,8 @@
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
       <c r="E3" s="6"/>
@@ -1992,8 +1983,8 @@
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="51"/>
-      <c r="B4" s="52"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
       <c r="E4" s="6"/>
@@ -2004,8 +1995,8 @@
       <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="51"/>
-      <c r="B5" s="52"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
       <c r="E5" s="6"/>
@@ -2016,8 +2007,8 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="51"/>
-      <c r="B6" s="52"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
       <c r="E6" s="6"/>
@@ -2028,8 +2019,8 @@
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="51"/>
-      <c r="B7" s="52"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
       <c r="E7" s="6"/>
@@ -2040,8 +2031,8 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="51"/>
-      <c r="B8" s="52"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
       <c r="E8" s="6"/>
@@ -2052,8 +2043,8 @@
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="51"/>
-      <c r="B9" s="52"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
       <c r="E9" s="6"/>
@@ -2064,8 +2055,8 @@
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="51"/>
-      <c r="B10" s="52"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="53"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
       <c r="E10" s="6"/>
@@ -2076,8 +2067,8 @@
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="51"/>
-      <c r="B11" s="52"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
       <c r="E11" s="6"/>
@@ -2088,8 +2079,8 @@
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="51"/>
-      <c r="B12" s="52"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
       <c r="E12" s="6"/>
@@ -2101,8 +2092,8 @@
       <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="51"/>
-      <c r="B13" s="52"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="6"/>
       <c r="D13" s="7"/>
       <c r="E13" s="6"/>
@@ -2114,8 +2105,8 @@
       <c r="K13" s="13"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="51"/>
-      <c r="B14" s="52"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="53"/>
       <c r="C14" s="6"/>
       <c r="D14" s="7"/>
       <c r="E14" s="6"/>
@@ -2127,8 +2118,8 @@
       <c r="K14" s="14"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="51"/>
-      <c r="B15" s="52"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
       <c r="E15" s="6"/>
@@ -2140,8 +2131,8 @@
       <c r="K15" s="15"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="51"/>
-      <c r="B16" s="52"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="6"/>
       <c r="D16" s="7"/>
       <c r="E16" s="6"/>
@@ -2153,8 +2144,8 @@
       <c r="K16" s="15"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="51"/>
-      <c r="B17" s="52"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="53"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
       <c r="E17" s="6"/>
@@ -2165,8 +2156,8 @@
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18" s="51"/>
-      <c r="B18" s="52"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="53"/>
       <c r="C18" s="6"/>
       <c r="D18" s="7"/>
       <c r="E18" s="6"/>
@@ -2192,35 +2183,35 @@
       </c>
     </row>
     <row r="20" spans="1:11" s="20" customFormat="1" ht="189" x14ac:dyDescent="0.15">
-      <c r="A20" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="46" t="s">
+      <c r="A20" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="46" t="s">
+      <c r="E20" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="H20" s="46" t="s">
+      <c r="F20" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="I20" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="J20" s="46" t="s">
+      <c r="G20" s="47" t="s">
         <v>75</v>
+      </c>
+      <c r="H20" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="I20" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" s="47" t="s">
+        <v>77</v>
       </c>
       <c r="K20" s="13"/>
     </row>
@@ -2233,54 +2224,54 @@
       <c r="K22" s="29"/>
     </row>
     <row r="23" spans="1:11" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="72" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="74"/>
+      <c r="B23" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="75"/>
       <c r="K23" s="9"/>
     </row>
     <row r="24" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="75"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="77"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="78"/>
       <c r="K24" s="9"/>
     </row>
     <row r="25" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="75"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="77"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="78"/>
       <c r="K25" s="9"/>
     </row>
     <row r="26" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="75"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="77"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="78"/>
       <c r="K26" s="9"/>
     </row>
     <row r="27" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="75"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="77"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="78"/>
       <c r="K27" s="9"/>
     </row>
     <row r="28" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="75"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="77"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="78"/>
       <c r="K28" s="9"/>
     </row>
     <row r="29" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="78"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="80"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="81"/>
       <c r="K29" s="9"/>
     </row>
   </sheetData>

--- a/chiloPro/template-series_english/structure-books_english.xlsx
+++ b/chiloPro/template-series_english/structure-books_english.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CHiLO-Producer_pri\chiloPro\template-series_english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitsuhashi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="827" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="827"/>
   </bookViews>
   <sheets>
     <sheet name="series-information" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>version</t>
     <phoneticPr fontId="1"/>
@@ -47,10 +47,6 @@
   </si>
   <si>
     <t>rights</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>creator</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -345,50 +341,123 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Topic title
+───────
+Valid only when page-type is set to "document." No need to input when it is set to "test."</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name of thumbnail of the explanation video
+────────────
+Valid only when page-type is set to "document."</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>File name of the explanation text
+─────
+Valid only when page-type is set to "document."</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>File name of Javascript
+─────
+Valid only when page-type is set to "document."</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CC license
+────────
+No need to input when it is not CC license.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* Required
+* The language will be listed as "ja", "en" according to the RFC 5646 format.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>book-cover</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uthor</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t>editor</t>
+  </si>
+  <si>
+    <t>published</t>
+  </si>
+  <si>
+    <t>revised</t>
+  </si>
+  <si>
+    <t>rights</t>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nside-cover</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>author</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Series information to be modified in each chapter
+────────────
+Enter information of [series-information] that need to be modified for each chapter
+(If you want to use the same information entered in [series-information], leave this cell blank)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Inside cover image to be modified for each chapter
+────────────
+To change the inside cover image for each chapter of [series-information], save the image in vol-x/images and enter the file name here.
+(If you want to use the same inside cover image as in [series-information], leave this cell blank</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Main contents of the page
 ────────────
 The main contents will differ according to the page-type.
-document…File name of the explanation video
+document…File name of the explanation video or sound
 test…URL of the Moodle quiz</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Topic title
-───────
-Valid only when page-type is set to "document." No need to input when it is set to "test."</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Name of thumbnail of the explanation video
-────────────
-Valid only when page-type is set to "document."</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>File name of the explanation text
-─────
-Valid only when page-type is set to "document."</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>File name of Javascript
-─────
-Valid only when page-type is set to "document."</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CC license
-────────
-No need to input when it is not CC license.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>* Required
-* The language will be listed as "ja", "en" according to the RFC 5646 format.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>book-cover</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -399,7 +468,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -534,8 +603,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -566,8 +643,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -826,6 +909,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -961,7 +1055,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1046,9 +1140,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1108,10 +1199,6 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1147,6 +1234,15 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1230,6 +1326,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1561,7 +1678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1579,35 +1696,35 @@
       <c r="B1" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>60</v>
+      <c r="C1" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>78</v>
+      <c r="C2" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>61</v>
+      <c r="C3" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1615,124 +1732,125 @@
         <v>1</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="64" t="s">
         <v>43</v>
-      </c>
-      <c r="D4" s="63" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="63"/>
+      <c r="C5" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="64"/>
     </row>
     <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="63"/>
+        <v>6</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="64"/>
     </row>
     <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="63"/>
+        <v>34</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="64"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="63"/>
+      <c r="C8" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="64"/>
     </row>
     <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="43" t="s">
         <v>49</v>
-      </c>
-      <c r="D9" s="45" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="43" t="s">
         <v>51</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="43" t="s">
         <v>53</v>
-      </c>
-      <c r="D11" s="45" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="45" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="56"/>
+      <c r="A14" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="56"/>
+      <c r="C14" s="57"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="57"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="59"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="60"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="57"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="59"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="60"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="60"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="62"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="63"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="2">
     <mergeCell ref="A14:C17"/>
     <mergeCell ref="D4:D8"/>
@@ -1750,9 +1868,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1762,135 +1880,211 @@
     <col min="4" max="4" width="32.75" style="5" customWidth="1"/>
     <col min="5" max="5" width="46.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38.25" customWidth="1"/>
+    <col min="7" max="7" width="8.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="42" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:15" s="41" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="84" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="84" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="N1" s="84" t="s">
+        <v>85</v>
+      </c>
+      <c r="O1" s="84" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="41" customFormat="1" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+    </row>
+    <row r="3" spans="1:15" s="41" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="38"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+    </row>
+    <row r="4" spans="1:15" s="41" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="38"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+    </row>
+    <row r="5" spans="1:15" s="5" customFormat="1" ht="142.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="42" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="43" customFormat="1" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="38"/>
-    </row>
-    <row r="3" spans="1:6" s="43" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="39"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="38"/>
-    </row>
-    <row r="4" spans="1:6" s="43" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="39"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="34"/>
-    </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" ht="142.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="48" t="s">
+      <c r="E5" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="48" t="s">
+      <c r="F5" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="49" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="F6" s="26"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G5" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="87" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="F6" s="25"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
-      <c r="D7" s="35"/>
+      <c r="D7" s="34"/>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="F8" s="19"/>
     </row>
-    <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19"/>
-      <c r="B9" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="66"/>
+      <c r="B9" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="66"/>
+      <c r="D9" s="67"/>
       <c r="F9" s="19"/>
     </row>
-    <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="69"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="70"/>
       <c r="F10" s="19"/>
     </row>
-    <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="19"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="69"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="70"/>
       <c r="F11" s="19"/>
     </row>
-    <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="19"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="69"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="70"/>
       <c r="F12" s="19"/>
     </row>
-    <row r="13" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="19"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="72"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="73"/>
       <c r="F13" s="19"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="1">
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="2">
     <mergeCell ref="B9:D13"/>
+    <mergeCell ref="G5:N5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1924,41 +2118,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="88" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="89" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="88" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="88" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="88" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="88" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>19</v>
-      </c>
       <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
       <c r="E2" s="6"/>
@@ -1970,8 +2164,8 @@
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="52"/>
-      <c r="B3" s="53"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
       <c r="E3" s="6"/>
@@ -1983,8 +2177,8 @@
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
       <c r="E4" s="6"/>
@@ -1995,8 +2189,8 @@
       <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
       <c r="E5" s="6"/>
@@ -2007,8 +2201,8 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="52"/>
-      <c r="B6" s="53"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
       <c r="E6" s="6"/>
@@ -2019,8 +2213,8 @@
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="52"/>
-      <c r="B7" s="53"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
       <c r="E7" s="6"/>
@@ -2031,8 +2225,8 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="52"/>
-      <c r="B8" s="53"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
       <c r="E8" s="6"/>
@@ -2043,8 +2237,8 @@
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="52"/>
-      <c r="B9" s="53"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
       <c r="E9" s="6"/>
@@ -2055,8 +2249,8 @@
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="52"/>
-      <c r="B10" s="53"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
       <c r="E10" s="6"/>
@@ -2067,8 +2261,8 @@
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="52"/>
-      <c r="B11" s="53"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
       <c r="E11" s="6"/>
@@ -2079,8 +2273,8 @@
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="52"/>
-      <c r="B12" s="53"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
       <c r="E12" s="6"/>
@@ -2092,8 +2286,8 @@
       <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="52"/>
-      <c r="B13" s="53"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="6"/>
       <c r="D13" s="7"/>
       <c r="E13" s="6"/>
@@ -2105,8 +2299,8 @@
       <c r="K13" s="13"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="52"/>
-      <c r="B14" s="53"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="6"/>
       <c r="D14" s="7"/>
       <c r="E14" s="6"/>
@@ -2118,8 +2312,8 @@
       <c r="K14" s="14"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="52"/>
-      <c r="B15" s="53"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
       <c r="E15" s="6"/>
@@ -2131,8 +2325,8 @@
       <c r="K15" s="15"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="52"/>
-      <c r="B16" s="53"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="6"/>
       <c r="D16" s="7"/>
       <c r="E16" s="6"/>
@@ -2144,8 +2338,8 @@
       <c r="K16" s="15"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="52"/>
-      <c r="B17" s="53"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
       <c r="E17" s="6"/>
@@ -2156,8 +2350,8 @@
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18" s="52"/>
-      <c r="B18" s="53"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="6"/>
       <c r="D18" s="7"/>
       <c r="E18" s="6"/>
@@ -2179,103 +2373,103 @@
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
       <c r="K19" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="20" customFormat="1" ht="189" x14ac:dyDescent="0.15">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="47" t="s">
+      <c r="E20" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="47" t="s">
+      <c r="H20" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="G20" s="47" t="s">
+      <c r="I20" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="H20" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="I20" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="J20" s="47" t="s">
-        <v>77</v>
-      </c>
       <c r="K20" s="13"/>
     </row>
-    <row r="21" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D21" s="28"/>
-      <c r="K21" s="29"/>
-    </row>
-    <row r="22" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D22" s="28"/>
-      <c r="K22" s="29"/>
+    <row r="21" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D21" s="27"/>
+      <c r="K21" s="28"/>
+    </row>
+    <row r="22" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D22" s="27"/>
+      <c r="K22" s="28"/>
     </row>
     <row r="23" spans="1:11" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="73" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="75"/>
+      <c r="B23" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="76"/>
       <c r="K23" s="9"/>
     </row>
     <row r="24" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="76"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="78"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="79"/>
       <c r="K24" s="9"/>
     </row>
     <row r="25" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="76"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="78"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="79"/>
       <c r="K25" s="9"/>
     </row>
     <row r="26" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="76"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="78"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="79"/>
       <c r="K26" s="9"/>
     </row>
     <row r="27" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="76"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="78"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="79"/>
       <c r="K27" s="9"/>
     </row>
     <row r="28" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="76"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="78"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="79"/>
       <c r="K28" s="9"/>
     </row>
     <row r="29" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="79"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="81"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="82"/>
       <c r="K29" s="9"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="1">
     <mergeCell ref="B23:E29"/>
   </mergeCells>
@@ -2327,61 +2521,61 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="C1" s="21" t="s">
         <v>12</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="23" t="b">
         <v>1</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="24"/>
       <c r="B4" s="24"/>
       <c r="C4" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="24"/>
       <c r="B5" s="24"/>
       <c r="C5" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="24"/>
       <c r="B6" s="24"/>
       <c r="C6" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="24"/>
       <c r="B7" s="24"/>
       <c r="C7" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">

--- a/chiloPro/template-series_english/structure-books_english.xlsx
+++ b/chiloPro/template-series_english/structure-books_english.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitsuhashi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CHiLO-Producer_pri\chiloPro\template-series_english\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>version</t>
     <phoneticPr fontId="1"/>
@@ -458,6 +458,26 @@
 The main contents will differ according to the page-type.
 document…File name of the explanation video or sound
 test…URL of the Moodle quiz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>begin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Start position
+─────
+Designate in seconds the starting position when dividing the video per page.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>End position
+─────
+Designate in seconds the ending position when dividing the video per page.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1243,6 +1263,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1300,6 +1335,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1326,27 +1367,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1735,7 +1755,7 @@
       <c r="C4" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="69" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1747,7 +1767,7 @@
       <c r="C5" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="64"/>
+      <c r="D5" s="69"/>
     </row>
     <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -1757,7 +1777,7 @@
       <c r="C6" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="64"/>
+      <c r="D6" s="69"/>
     </row>
     <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -1767,7 +1787,7 @@
       <c r="C7" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="64"/>
+      <c r="D7" s="69"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -1777,7 +1797,7 @@
       <c r="C8" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="64"/>
+      <c r="D8" s="69"/>
     </row>
     <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
@@ -1828,26 +1848,26 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="57"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="62"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="58"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="60"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="65"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="58"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="60"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="65"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="61"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="63"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="68"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -1891,49 +1911,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="41" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="83" t="s">
+      <c r="E1" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="F1" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="84" t="s">
+      <c r="G1" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="84" t="s">
+      <c r="H1" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="84" t="s">
+      <c r="I1" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="J1" s="84" t="s">
+      <c r="J1" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="K1" s="84" t="s">
+      <c r="K1" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="L1" s="84" t="s">
+      <c r="L1" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="M1" s="84" t="s">
+      <c r="M1" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="N1" s="84" t="s">
+      <c r="N1" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="O1" s="84" t="s">
+      <c r="O1" s="56" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2009,17 +2029,17 @@
       <c r="F5" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="85" t="s">
+      <c r="G5" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="87" t="s">
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="57" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2045,39 +2065,39 @@
     </row>
     <row r="9" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19"/>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="67"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="72"/>
       <c r="F9" s="19"/>
     </row>
     <row r="10" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="70"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="75"/>
       <c r="F10" s="19"/>
     </row>
     <row r="11" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="19"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="70"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="75"/>
       <c r="F11" s="19"/>
     </row>
     <row r="12" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="19"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="70"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="75"/>
       <c r="F12" s="19"/>
     </row>
     <row r="13" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="19"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="73"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="78"/>
       <c r="F13" s="19"/>
     </row>
   </sheetData>
@@ -2099,7 +2119,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2112,45 +2132,52 @@
     <col min="6" max="6" width="27.125" customWidth="1"/>
     <col min="7" max="7" width="23.5" customWidth="1"/>
     <col min="8" max="8" width="27.75" customWidth="1"/>
-    <col min="9" max="9" width="31.25" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="31.25" customWidth="1"/>
     <col min="10" max="10" width="15.625" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="11"/>
+    <col min="11" max="12" width="31.25" customWidth="1"/>
+    <col min="13" max="13" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="88" t="s">
+      <c r="E1" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="88" t="s">
+      <c r="F1" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="88" t="s">
+      <c r="G1" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="88" t="s">
+      <c r="H1" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="88" t="s">
+      <c r="I1" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="88" t="s">
+      <c r="J1" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="8"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="K1" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" s="8"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" s="50"/>
       <c r="B2" s="51"/>
       <c r="C2" s="6"/>
@@ -2161,9 +2188,11 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
-      <c r="K2" s="10"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="10"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="50"/>
       <c r="B3" s="51"/>
       <c r="C3" s="6"/>
@@ -2174,9 +2203,11 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="10"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="10"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="50"/>
       <c r="B4" s="51"/>
       <c r="C4" s="6"/>
@@ -2187,8 +2218,10 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="50"/>
       <c r="B5" s="51"/>
       <c r="C5" s="6"/>
@@ -2199,8 +2232,10 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="50"/>
       <c r="B6" s="51"/>
       <c r="C6" s="6"/>
@@ -2211,8 +2246,10 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="50"/>
       <c r="B7" s="51"/>
       <c r="C7" s="6"/>
@@ -2223,8 +2260,10 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="50"/>
       <c r="B8" s="51"/>
       <c r="C8" s="6"/>
@@ -2235,8 +2274,10 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="50"/>
       <c r="B9" s="51"/>
       <c r="C9" s="6"/>
@@ -2247,8 +2288,10 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="50"/>
       <c r="B10" s="51"/>
       <c r="C10" s="6"/>
@@ -2259,8 +2302,10 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="50"/>
       <c r="B11" s="51"/>
       <c r="C11" s="6"/>
@@ -2271,8 +2316,10 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="50"/>
       <c r="B12" s="51"/>
       <c r="C12" s="6"/>
@@ -2283,9 +2330,11 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="12"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="50"/>
       <c r="B13" s="51"/>
       <c r="C13" s="6"/>
@@ -2296,9 +2345,11 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="13"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="13"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="50"/>
       <c r="B14" s="51"/>
       <c r="C14" s="6"/>
@@ -2309,9 +2360,11 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="14"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="14"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="50"/>
       <c r="B15" s="51"/>
       <c r="C15" s="6"/>
@@ -2322,9 +2375,11 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="15"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="15"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="50"/>
       <c r="B16" s="51"/>
       <c r="C16" s="6"/>
@@ -2335,9 +2390,11 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="15"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="15"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="50"/>
       <c r="B17" s="51"/>
       <c r="C17" s="6"/>
@@ -2348,8 +2405,10 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="50"/>
       <c r="B18" s="51"/>
       <c r="C18" s="6"/>
@@ -2360,8 +2419,10 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="16"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
@@ -2372,11 +2433,13 @@
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
-      <c r="K19" s="12" t="s">
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="20" customFormat="1" ht="189" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" s="20" customFormat="1" ht="189" x14ac:dyDescent="0.15">
       <c r="A20" s="48" t="s">
         <v>69</v>
       </c>
@@ -2407,66 +2470,72 @@
       <c r="J20" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="K20" s="13"/>
-    </row>
-    <row r="21" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="K20" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="L20" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="M20" s="13"/>
+    </row>
+    <row r="21" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D21" s="27"/>
-      <c r="K21" s="28"/>
-    </row>
-    <row r="22" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="M21" s="28"/>
+    </row>
+    <row r="22" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D22" s="27"/>
-      <c r="K22" s="28"/>
-    </row>
-    <row r="23" spans="1:11" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="74" t="s">
+      <c r="M22" s="28"/>
+    </row>
+    <row r="23" spans="1:13" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="76"/>
-      <c r="K23" s="9"/>
-    </row>
-    <row r="24" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="77"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="79"/>
-      <c r="K24" s="9"/>
-    </row>
-    <row r="25" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="77"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="79"/>
-      <c r="K25" s="9"/>
-    </row>
-    <row r="26" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="77"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="79"/>
-      <c r="K26" s="9"/>
-    </row>
-    <row r="27" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="77"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="79"/>
-      <c r="K27" s="9"/>
-    </row>
-    <row r="28" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="77"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="79"/>
-      <c r="K28" s="9"/>
-    </row>
-    <row r="29" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="80"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="82"/>
-      <c r="K29" s="9"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="83"/>
+      <c r="M23" s="9"/>
+    </row>
+    <row r="24" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="84"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="86"/>
+      <c r="M24" s="9"/>
+    </row>
+    <row r="25" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="84"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="86"/>
+      <c r="M25" s="9"/>
+    </row>
+    <row r="26" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="84"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="86"/>
+      <c r="M26" s="9"/>
+    </row>
+    <row r="27" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="84"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="86"/>
+      <c r="M27" s="9"/>
+    </row>
+    <row r="28" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="84"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="86"/>
+      <c r="M28" s="9"/>
+    </row>
+    <row r="29" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="87"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="89"/>
+      <c r="M29" s="9"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -2475,7 +2544,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">

--- a/chiloPro/template-series_english/structure-books_english.xlsx
+++ b/chiloPro/template-series_english/structure-books_english.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CHiLO-Producer_pri\chiloPro\template-series_english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\chilo-producer\chiloPro\template-series_english\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2102,6 +2102,9 @@
     </row>
   </sheetData>
   <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <protectedRanges>
+    <protectedRange sqref="A2:XFD4" name="範囲1"/>
+  </protectedRanges>
   <mergeCells count="2">
     <mergeCell ref="B9:D13"/>
     <mergeCell ref="G5:N5"/>
@@ -2119,7 +2122,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>

--- a/chiloPro/template-series_english/structure-books_english.xlsx
+++ b/chiloPro/template-series_english/structure-books_english.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\chilo-producer\chiloPro\template-series_english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CHiLO-Producer_pri\chiloPro\template-series_english\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -204,12 +204,6 @@
     <t>Name of editor</t>
   </si>
   <si>
-    <t>Issued date of first edition</t>
-  </si>
-  <si>
-    <t>Date of revision</t>
-  </si>
-  <si>
     <t>Owner of copyright</t>
   </si>
   <si>
@@ -479,6 +473,14 @@
 ─────
 Designate in seconds the ending position when dividing the video per page.</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Issued date of first edition (YYYY-MM-DD)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Date of revision (YYYY-MM-DD)</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1075,7 +1077,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1223,12 +1225,6 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1305,9 +1301,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1367,6 +1360,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1719,8 +1718,8 @@
       <c r="C1" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="43" t="s">
-        <v>59</v>
+      <c r="D1" s="87" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1731,20 +1730,20 @@
       <c r="C2" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="43" t="s">
-        <v>76</v>
+      <c r="D2" s="87" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="43" t="s">
-        <v>60</v>
+      <c r="D3" s="87" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1755,7 +1754,7 @@
       <c r="C4" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="69" t="s">
+      <c r="D4" s="88" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1767,7 +1766,7 @@
       <c r="C5" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="69"/>
+      <c r="D5" s="88"/>
     </row>
     <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -1775,9 +1774,9 @@
       </c>
       <c r="B6" s="29"/>
       <c r="C6" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="69"/>
+        <v>93</v>
+      </c>
+      <c r="D6" s="88"/>
     </row>
     <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -1785,9 +1784,9 @@
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="69"/>
+        <v>94</v>
+      </c>
+      <c r="D7" s="88"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -1795,9 +1794,9 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="69"/>
+        <v>45</v>
+      </c>
+      <c r="D8" s="88"/>
     </row>
     <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
@@ -1805,10 +1804,10 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="D9" s="87" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -1817,10 +1816,10 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="43" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="D10" s="87" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -1828,11 +1827,11 @@
         <v>8</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>53</v>
+      <c r="C11" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="87" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -1840,34 +1839,34 @@
         <v>9</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="43" t="s">
-        <v>55</v>
+      <c r="C12" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="87" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="62"/>
+      <c r="A14" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="59"/>
+      <c r="C14" s="60"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="63"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="65"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="63"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="63"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="65"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="63"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="66"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="68"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="66"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -1911,50 +1910,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="41" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="56" t="s">
+      <c r="I1" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="J1" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="K1" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="L1" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="M1" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="L1" s="56" t="s">
+      <c r="N1" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="M1" s="56" t="s">
+      <c r="O1" s="54" t="s">
         <v>84</v>
-      </c>
-      <c r="N1" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="O1" s="56" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="41" customFormat="1" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -1966,15 +1965,15 @@
       <c r="D2" s="32"/>
       <c r="E2" s="40"/>
       <c r="F2" s="37"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
     </row>
     <row r="3" spans="1:15" s="41" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="38"/>
@@ -1983,15 +1982,15 @@
       <c r="D3" s="33"/>
       <c r="E3" s="40"/>
       <c r="F3" s="37"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
     </row>
     <row r="4" spans="1:15" s="41" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="38"/>
@@ -2000,47 +1999,47 @@
       <c r="D4" s="33"/>
       <c r="E4" s="40"/>
       <c r="F4" s="33"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
     </row>
     <row r="5" spans="1:15" s="5" customFormat="1" ht="142.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="D5" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="F5" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" s="79" t="s">
-        <v>88</v>
-      </c>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="57" t="s">
-        <v>89</v>
+      <c r="G5" s="76" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="55" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -2065,39 +2064,39 @@
     </row>
     <row r="9" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19"/>
-      <c r="B9" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="71"/>
-      <c r="D9" s="72"/>
+      <c r="B9" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="68"/>
+      <c r="D9" s="69"/>
       <c r="F9" s="19"/>
     </row>
     <row r="10" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="75"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="72"/>
       <c r="F10" s="19"/>
     </row>
     <row r="11" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="19"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="75"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="72"/>
       <c r="F11" s="19"/>
     </row>
     <row r="12" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="19"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="75"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="72"/>
       <c r="F12" s="19"/>
     </row>
     <row r="13" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="19"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="78"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="75"/>
       <c r="F13" s="19"/>
     </row>
   </sheetData>
@@ -2142,47 +2141,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="58" t="s">
+      <c r="B1" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="L1" s="58" t="s">
-        <v>92</v>
+      <c r="K1" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" s="56" t="s">
+        <v>90</v>
       </c>
       <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="50"/>
-      <c r="B2" s="51"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
       <c r="E2" s="6"/>
@@ -2196,8 +2195,8 @@
       <c r="M2" s="10"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
       <c r="E3" s="6"/>
@@ -2211,8 +2210,8 @@
       <c r="M3" s="10"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
       <c r="E4" s="6"/>
@@ -2225,8 +2224,8 @@
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="50"/>
-      <c r="B5" s="51"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
       <c r="E5" s="6"/>
@@ -2239,8 +2238,8 @@
       <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="50"/>
-      <c r="B6" s="51"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
       <c r="E6" s="6"/>
@@ -2253,8 +2252,8 @@
       <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="50"/>
-      <c r="B7" s="51"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
       <c r="E7" s="6"/>
@@ -2267,8 +2266,8 @@
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="50"/>
-      <c r="B8" s="51"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
       <c r="E8" s="6"/>
@@ -2281,8 +2280,8 @@
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="50"/>
-      <c r="B9" s="51"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
       <c r="E9" s="6"/>
@@ -2295,8 +2294,8 @@
       <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="50"/>
-      <c r="B10" s="51"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
       <c r="E10" s="6"/>
@@ -2309,8 +2308,8 @@
       <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="50"/>
-      <c r="B11" s="51"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
       <c r="E11" s="6"/>
@@ -2323,8 +2322,8 @@
       <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="50"/>
-      <c r="B12" s="51"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
       <c r="E12" s="6"/>
@@ -2338,8 +2337,8 @@
       <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="50"/>
-      <c r="B13" s="51"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="6"/>
       <c r="D13" s="7"/>
       <c r="E13" s="6"/>
@@ -2353,8 +2352,8 @@
       <c r="M13" s="13"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="50"/>
-      <c r="B14" s="51"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="6"/>
       <c r="D14" s="7"/>
       <c r="E14" s="6"/>
@@ -2368,8 +2367,8 @@
       <c r="M14" s="14"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="50"/>
-      <c r="B15" s="51"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
       <c r="E15" s="6"/>
@@ -2383,8 +2382,8 @@
       <c r="M15" s="15"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="50"/>
-      <c r="B16" s="51"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="6"/>
       <c r="D16" s="7"/>
       <c r="E16" s="6"/>
@@ -2398,8 +2397,8 @@
       <c r="M16" s="15"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="50"/>
-      <c r="B17" s="51"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
       <c r="E17" s="6"/>
@@ -2412,8 +2411,8 @@
       <c r="L17" s="6"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="50"/>
-      <c r="B18" s="51"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="6"/>
       <c r="D18" s="7"/>
       <c r="E18" s="6"/>
@@ -2443,41 +2442,41 @@
       </c>
     </row>
     <row r="20" spans="1:13" s="20" customFormat="1" ht="189" x14ac:dyDescent="0.15">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="45" t="s">
+      <c r="D20" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="F20" s="45" t="s">
+      <c r="H20" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="45" t="s">
+      <c r="I20" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="J20" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="H20" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="I20" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="J20" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="K20" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="L20" s="45" t="s">
-        <v>94</v>
+      <c r="K20" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="L20" s="43" t="s">
+        <v>92</v>
       </c>
       <c r="M20" s="13"/>
     </row>
@@ -2490,54 +2489,54 @@
       <c r="M22" s="28"/>
     </row>
     <row r="23" spans="1:13" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="83"/>
+      <c r="B23" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="80"/>
       <c r="M23" s="9"/>
     </row>
     <row r="24" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="84"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="86"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="83"/>
       <c r="M24" s="9"/>
     </row>
     <row r="25" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="84"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="86"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="83"/>
       <c r="M25" s="9"/>
     </row>
     <row r="26" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="84"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="86"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="83"/>
       <c r="M26" s="9"/>
     </row>
     <row r="27" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="84"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="86"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="83"/>
       <c r="M27" s="9"/>
     </row>
     <row r="28" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="84"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="86"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="83"/>
       <c r="M28" s="9"/>
     </row>
     <row r="29" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="87"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="89"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="86"/>
       <c r="M29" s="9"/>
     </row>
   </sheetData>

--- a/chiloPro/template-series_english/structure-books_english.xlsx
+++ b/chiloPro/template-series_english/structure-books_english.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>version</t>
     <phoneticPr fontId="1"/>
@@ -71,10 +71,6 @@
   </si>
   <si>
     <t>series-url</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cover</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -480,6 +476,14 @@
   </si>
   <si>
     <t>Date of revision (YYYY-MM-DD)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>inside-cover</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chilo_inside_cover.png</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1274,6 +1278,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1301,6 +1308,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1360,12 +1370,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1716,10 +1720,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="87" t="s">
-        <v>57</v>
+        <v>38</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1728,22 +1732,22 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="87" t="s">
-        <v>74</v>
+        <v>39</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="87" t="s">
-        <v>58</v>
+        <v>40</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1752,10 +1756,10 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="68" t="s">
         <v>42</v>
-      </c>
-      <c r="D4" s="88" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -1764,9 +1768,9 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="88"/>
+        <v>43</v>
+      </c>
+      <c r="D5" s="68"/>
     </row>
     <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -1774,19 +1778,19 @@
       </c>
       <c r="B6" s="29"/>
       <c r="C6" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="88"/>
+        <v>92</v>
+      </c>
+      <c r="D6" s="68"/>
     </row>
     <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="88"/>
+        <v>93</v>
+      </c>
+      <c r="D7" s="68"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -1794,9 +1798,9 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="88"/>
+        <v>44</v>
+      </c>
+      <c r="D8" s="68"/>
     </row>
     <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
@@ -1804,10 +1808,10 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="58" t="s">
         <v>46</v>
-      </c>
-      <c r="D9" s="87" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -1816,10 +1820,10 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="58" t="s">
         <v>48</v>
-      </c>
-      <c r="D10" s="87" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -1828,45 +1832,47 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="58" t="s">
         <v>50</v>
-      </c>
-      <c r="D11" s="87" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="C12" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="87" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="60"/>
+      <c r="A14" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="60"/>
+      <c r="C14" s="61"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="61"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="63"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="64"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="61"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="63"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="64"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="64"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="66"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="67"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -1911,54 +1917,54 @@
   <sheetData>
     <row r="1" spans="1:15" s="41" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="G1" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="54" t="s">
+      <c r="H1" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="54" t="s">
+      <c r="I1" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="J1" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="K1" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="54" t="s">
+      <c r="L1" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="54" t="s">
+      <c r="M1" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="M1" s="54" t="s">
+      <c r="N1" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="N1" s="54" t="s">
+      <c r="O1" s="54" t="s">
         <v>83</v>
-      </c>
-      <c r="O1" s="54" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="41" customFormat="1" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="36"/>
@@ -2011,35 +2017,35 @@
     </row>
     <row r="5" spans="1:15" s="5" customFormat="1" ht="142.5" x14ac:dyDescent="0.15">
       <c r="A5" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="C5" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="D5" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="44" t="s">
+      <c r="F5" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="76" t="s">
+      <c r="G5" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="55" t="s">
         <v>86</v>
-      </c>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="55" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -2064,39 +2070,39 @@
     </row>
     <row r="9" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19"/>
-      <c r="B9" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="69"/>
+      <c r="B9" s="69" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="70"/>
+      <c r="D9" s="71"/>
       <c r="F9" s="19"/>
     </row>
     <row r="10" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="72"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="74"/>
       <c r="F10" s="19"/>
     </row>
     <row r="11" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="19"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="72"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="74"/>
       <c r="F11" s="19"/>
     </row>
     <row r="12" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="19"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="72"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="74"/>
       <c r="F12" s="19"/>
     </row>
     <row r="13" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="19"/>
-      <c r="B13" s="73"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="75"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="77"/>
       <c r="F13" s="19"/>
     </row>
   </sheetData>
@@ -2142,40 +2148,40 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="56" t="s">
+      <c r="D1" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="56" t="s">
+      <c r="J1" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="56" t="s">
-        <v>18</v>
-      </c>
       <c r="K1" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="L1" s="56" t="s">
         <v>89</v>
-      </c>
-      <c r="L1" s="56" t="s">
-        <v>90</v>
       </c>
       <c r="M1" s="8"/>
     </row>
@@ -2438,45 +2444,45 @@
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
       <c r="M19" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="20" customFormat="1" ht="189" x14ac:dyDescent="0.15">
       <c r="A20" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="43" t="s">
+      <c r="E20" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="F20" s="43" t="s">
+      <c r="G20" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="G20" s="43" t="s">
+      <c r="H20" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="H20" s="43" t="s">
+      <c r="I20" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="I20" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="J20" s="43" t="s">
-        <v>73</v>
-      </c>
       <c r="K20" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="L20" s="43" t="s">
         <v>91</v>
-      </c>
-      <c r="L20" s="43" t="s">
-        <v>92</v>
       </c>
       <c r="M20" s="13"/>
     </row>
@@ -2489,54 +2495,54 @@
       <c r="M22" s="28"/>
     </row>
     <row r="23" spans="1:13" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="78" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="80"/>
+      <c r="B23" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="82"/>
       <c r="M23" s="9"/>
     </row>
     <row r="24" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="81"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="83"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="85"/>
       <c r="M24" s="9"/>
     </row>
     <row r="25" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="81"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="83"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="85"/>
       <c r="M25" s="9"/>
     </row>
     <row r="26" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="81"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="83"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="85"/>
       <c r="M26" s="9"/>
     </row>
     <row r="27" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="81"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="83"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="85"/>
       <c r="M27" s="9"/>
     </row>
     <row r="28" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="81"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="83"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="85"/>
       <c r="M28" s="9"/>
     </row>
     <row r="29" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="84"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="86"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="88"/>
       <c r="M29" s="9"/>
     </row>
   </sheetData>
@@ -2592,61 +2598,61 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="C1" s="21" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="23" t="b">
         <v>1</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="24"/>
       <c r="B4" s="24"/>
       <c r="C4" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="24"/>
       <c r="B5" s="24"/>
       <c r="C5" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="24"/>
       <c r="B6" s="24"/>
       <c r="C6" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="24"/>
       <c r="B7" s="24"/>
       <c r="C7" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">

--- a/chiloPro/template-series_english/structure-books_english.xlsx
+++ b/chiloPro/template-series_english/structure-books_english.xlsx
@@ -676,7 +676,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -943,6 +943,21 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1254,23 +1269,11 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1338,12 +1341,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1370,6 +1367,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1722,7 +1740,7 @@
       <c r="C1" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="54" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1734,7 +1752,7 @@
       <c r="C2" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="54" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1746,7 +1764,7 @@
       <c r="C3" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="54" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1758,7 +1776,7 @@
       <c r="C4" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="64" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1770,7 +1788,7 @@
       <c r="C5" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="68"/>
+      <c r="D5" s="64"/>
     </row>
     <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -1780,7 +1798,7 @@
       <c r="C6" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="68"/>
+      <c r="D6" s="64"/>
     </row>
     <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -1790,7 +1808,7 @@
       <c r="C7" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="68"/>
+      <c r="D7" s="64"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -1800,7 +1818,7 @@
       <c r="C8" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="68"/>
+      <c r="D8" s="64"/>
     </row>
     <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
@@ -1810,7 +1828,7 @@
       <c r="C9" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="54" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1822,7 +1840,7 @@
       <c r="C10" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="54" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1834,7 +1852,7 @@
       <c r="C11" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="54" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1848,31 +1866,31 @@
       <c r="C12" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="54" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="60"/>
-      <c r="C14" s="61"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="57"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="62"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="64"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="60"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="62"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="64"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="60"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="65"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="67"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="63"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -1916,49 +1934,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="41" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="54" t="s">
+      <c r="H1" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="I1" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="J1" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="54" t="s">
+      <c r="K1" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="L1" s="54" t="s">
+      <c r="L1" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="M1" s="54" t="s">
+      <c r="M1" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="N1" s="54" t="s">
+      <c r="N1" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="O1" s="54" t="s">
+      <c r="O1" s="51" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1971,15 +1989,15 @@
       <c r="D2" s="32"/>
       <c r="E2" s="40"/>
       <c r="F2" s="37"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
     </row>
     <row r="3" spans="1:15" s="41" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="38"/>
@@ -1988,15 +2006,15 @@
       <c r="D3" s="33"/>
       <c r="E3" s="40"/>
       <c r="F3" s="37"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
     </row>
     <row r="4" spans="1:15" s="41" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="38"/>
@@ -2005,15 +2023,15 @@
       <c r="D4" s="33"/>
       <c r="E4" s="40"/>
       <c r="F4" s="33"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="88"/>
     </row>
     <row r="5" spans="1:15" s="5" customFormat="1" ht="142.5" x14ac:dyDescent="0.15">
       <c r="A5" s="44" t="s">
@@ -2031,20 +2049,20 @@
       <c r="E5" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="78" t="s">
+      <c r="G5" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="55" t="s">
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="45" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2070,39 +2088,39 @@
     </row>
     <row r="9" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19"/>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="71"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="67"/>
       <c r="F9" s="19"/>
     </row>
     <row r="10" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="74"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="70"/>
       <c r="F10" s="19"/>
     </row>
     <row r="11" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="19"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="74"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="70"/>
       <c r="F11" s="19"/>
     </row>
     <row r="12" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="19"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="74"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="70"/>
       <c r="F12" s="19"/>
     </row>
     <row r="13" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="19"/>
-      <c r="B13" s="75"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="77"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="73"/>
       <c r="F13" s="19"/>
     </row>
   </sheetData>
@@ -2147,40 +2165,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="H1" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="I1" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="K1" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="L1" s="56" t="s">
+      <c r="L1" s="52" t="s">
         <v>89</v>
       </c>
       <c r="M1" s="8"/>
@@ -2495,54 +2513,54 @@
       <c r="M22" s="28"/>
     </row>
     <row r="23" spans="1:13" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="80" t="s">
+      <c r="B23" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="82"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="76"/>
       <c r="M23" s="9"/>
     </row>
     <row r="24" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="83"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="85"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="79"/>
       <c r="M24" s="9"/>
     </row>
     <row r="25" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="83"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="85"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="79"/>
       <c r="M25" s="9"/>
     </row>
     <row r="26" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="83"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="85"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="79"/>
       <c r="M26" s="9"/>
     </row>
     <row r="27" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="83"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="85"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="79"/>
       <c r="M27" s="9"/>
     </row>
     <row r="28" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="83"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="85"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="79"/>
       <c r="M28" s="9"/>
     </row>
     <row r="29" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="86"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="88"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="82"/>
       <c r="M29" s="9"/>
     </row>
   </sheetData>

--- a/chiloPro/template-series_english/structure-books_english.xlsx
+++ b/chiloPro/template-series_english/structure-books_english.xlsx
@@ -257,29 +257,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">・This sheet is used  to  enter the information about the series.
-・The colored cells are required fields.
-・The cells  not allowed to be modified, are protected. There are no passwords for its cancellation.
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・This sheet is for entering information about each Book of the series. 
-・ The colored cells are required fields.
-・ Insert lines according to the number of Books and fill in required information.
-・The cells  not allowed to be modified, are protected. There are no passwords for its cancellation.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ This sheet is for entering information on the explanation page and assignment test page.
-・ The colored cells are required fields.
-・ Specify the page-type and add lines for adding CHiLO Book pages.
-・A book structure sheet is necessary for each book. Copy and fill out one sheet for each Book. 
-・ Conform the sheet name to the "vol" column of the book-list.
-・The cells  not allowed to be modified, are protected. There are no passwords for its cancellation.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>（Required）Number of volumes
 ──────
 Enter in order in "vol-number" format</t>
@@ -485,6 +462,25 @@
   <si>
     <t>chilo_inside_cover.png</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・This sheet is used  to  enter the information about the series.
+・The colored cells are required fields.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・This sheet is for entering information about each Book of the series. 
+・ The colored cells are required fields.
+・ Insert lines according to the number of Books and fill in required information.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ This sheet is for entering information on the explanation page and assignment test page.
+・ The colored cells are required fields.
+・ Specify the page-type and add lines for adding CHiLO Book pages.
+・A book structure sheet is necessary for each book. Copy and fill out one sheet for each Book. 
+・ Conform the sheet name to the "vol" column of the book-list.</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1284,6 +1280,21 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1341,6 +1352,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1367,27 +1384,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1717,7 +1713,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
@@ -1753,12 +1749,12 @@
         <v>39</v>
       </c>
       <c r="D2" s="54" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="42" t="s">
@@ -1776,7 +1772,7 @@
       <c r="C4" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="68" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1788,7 +1784,7 @@
       <c r="C5" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="64"/>
+      <c r="D5" s="68"/>
     </row>
     <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -1796,9 +1792,9 @@
       </c>
       <c r="B6" s="29"/>
       <c r="C6" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="64"/>
+        <v>89</v>
+      </c>
+      <c r="D6" s="68"/>
     </row>
     <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -1806,9 +1802,9 @@
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="64"/>
+        <v>90</v>
+      </c>
+      <c r="D7" s="68"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -1818,7 +1814,7 @@
       <c r="C8" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="64"/>
+      <c r="D8" s="68"/>
     </row>
     <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
@@ -1858,10 +1854,10 @@
     </row>
     <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C12" s="42" t="s">
         <v>51</v>
@@ -1870,33 +1866,27 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="57"/>
+    <row r="14" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="60"/>
+      <c r="C14" s="61"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="58"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="60"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="64"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="58"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="60"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="61"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="63"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="67"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="2">
-    <mergeCell ref="A14:C17"/>
     <mergeCell ref="D4:D8"/>
+    <mergeCell ref="A14:C16"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1911,7 +1901,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
@@ -1944,7 +1934,7 @@
         <v>19</v>
       </c>
       <c r="D1" s="50" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E1" s="50" t="s">
         <v>32</v>
@@ -1953,31 +1943,31 @@
         <v>20</v>
       </c>
       <c r="G1" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="K1" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="L1" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="M1" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="N1" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="O1" s="51" t="s">
         <v>80</v>
-      </c>
-      <c r="M1" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="N1" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="O1" s="51" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="41" customFormat="1" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -1994,8 +1984,8 @@
       <c r="I2" s="35"/>
       <c r="J2" s="35"/>
       <c r="K2" s="35"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
       <c r="N2" s="35"/>
       <c r="O2" s="35"/>
     </row>
@@ -2011,8 +2001,8 @@
       <c r="I3" s="35"/>
       <c r="J3" s="35"/>
       <c r="K3" s="35"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
       <c r="N3" s="35"/>
       <c r="O3" s="35"/>
     </row>
@@ -2028,42 +2018,42 @@
       <c r="I4" s="33"/>
       <c r="J4" s="33"/>
       <c r="K4" s="33"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
       <c r="N4" s="33"/>
-      <c r="O4" s="88"/>
+      <c r="O4" s="58"/>
     </row>
     <row r="5" spans="1:15" s="5" customFormat="1" ht="142.5" x14ac:dyDescent="0.15">
       <c r="A5" s="44" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D5" s="44" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="84" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
+        <v>61</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
       <c r="O5" s="45" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -2088,49 +2078,39 @@
     </row>
     <row r="9" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19"/>
-      <c r="B9" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="67"/>
+      <c r="B9" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="70"/>
+      <c r="D9" s="71"/>
       <c r="F9" s="19"/>
     </row>
     <row r="10" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="70"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="74"/>
       <c r="F10" s="19"/>
     </row>
     <row r="11" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="19"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="70"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="74"/>
       <c r="F11" s="19"/>
     </row>
     <row r="12" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="19"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="70"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="77"/>
       <c r="F12" s="19"/>
     </row>
-    <row r="13" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="19"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="73"/>
-      <c r="F13" s="19"/>
-    </row>
   </sheetData>
-  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <protectedRanges>
-    <protectedRange sqref="A2:XFD4" name="範囲1"/>
-  </protectedRanges>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="2">
-    <mergeCell ref="B9:D13"/>
     <mergeCell ref="G5:N5"/>
+    <mergeCell ref="B9:D12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2145,7 +2125,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2196,10 +2176,10 @@
         <v>17</v>
       </c>
       <c r="K1" s="52" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L1" s="52" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M1" s="8"/>
     </row>
@@ -2467,40 +2447,40 @@
     </row>
     <row r="20" spans="1:13" s="20" customFormat="1" ht="189" x14ac:dyDescent="0.15">
       <c r="A20" s="46" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B20" s="43" t="s">
         <v>55</v>
       </c>
       <c r="C20" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="43" t="s">
         <v>68</v>
-      </c>
-      <c r="D20" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="F20" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" s="43" t="s">
-        <v>71</v>
       </c>
       <c r="I20" s="43" t="s">
         <v>53</v>
       </c>
       <c r="J20" s="43" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K20" s="43" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L20" s="43" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M20" s="13"/>
     </row>
@@ -2513,60 +2493,53 @@
       <c r="M22" s="28"/>
     </row>
     <row r="23" spans="1:13" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="74" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="76"/>
+      <c r="B23" s="80" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="82"/>
       <c r="M23" s="9"/>
     </row>
     <row r="24" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="77"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="79"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="85"/>
       <c r="M24" s="9"/>
     </row>
     <row r="25" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="77"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="79"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="85"/>
       <c r="M25" s="9"/>
     </row>
     <row r="26" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="77"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="79"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="85"/>
       <c r="M26" s="9"/>
     </row>
     <row r="27" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="77"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="79"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="85"/>
       <c r="M27" s="9"/>
     </row>
     <row r="28" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="77"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="79"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="88"/>
       <c r="M28" s="9"/>
     </row>
-    <row r="29" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="80"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="82"/>
-      <c r="M29" s="9"/>
-    </row>
   </sheetData>
-  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="1">
-    <mergeCell ref="B23:E29"/>
+    <mergeCell ref="B23:E28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/chiloPro/template-series_english/structure-books_english.xlsx
+++ b/chiloPro/template-series_english/structure-books_english.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CHiLO-Producer_pri\chiloPro\template-series_english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\chilo-producer\chiloPro\template-series_english\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -278,12 +278,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Unique ID of CHiLO Book
-──────────────────
-It will be set in content.opf.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>URL of CHiLO Community
 ────────────
 You can designate SNS such as Facebook, Twitter, Moodle forum as a learning community.</t>
@@ -480,6 +474,12 @@
 ・ Specify the page-type and add lines for adding CHiLO Book pages.
 ・A book structure sheet is necessary for each book. Copy and fill out one sheet for each Book. 
 ・ Conform the sheet name to the "vol" column of the book-list.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UUID of CHiLO Book
+──────────────────
+It will be set in content.opf.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1295,6 +1295,9 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1322,7 +1325,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1351,12 +1357,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1749,12 +1749,12 @@
         <v>39</v>
       </c>
       <c r="D2" s="54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="42" t="s">
@@ -1772,7 +1772,7 @@
       <c r="C4" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="59" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1784,7 +1784,7 @@
       <c r="C5" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="68"/>
+      <c r="D5" s="59"/>
     </row>
     <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -1792,9 +1792,9 @@
       </c>
       <c r="B6" s="29"/>
       <c r="C6" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="68"/>
+        <v>88</v>
+      </c>
+      <c r="D6" s="59"/>
     </row>
     <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -1802,9 +1802,9 @@
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="68"/>
+        <v>89</v>
+      </c>
+      <c r="D7" s="59"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -1814,7 +1814,7 @@
       <c r="C8" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="68"/>
+      <c r="D8" s="59"/>
     </row>
     <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
@@ -1854,10 +1854,10 @@
     </row>
     <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="C12" s="42" t="s">
         <v>51</v>
@@ -1867,21 +1867,21 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="60"/>
-      <c r="C14" s="61"/>
+      <c r="A14" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="61"/>
+      <c r="C14" s="62"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="62"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="64"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="65"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="65"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="67"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1934,7 +1934,7 @@
         <v>19</v>
       </c>
       <c r="D1" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E1" s="50" t="s">
         <v>32</v>
@@ -1943,31 +1943,31 @@
         <v>20</v>
       </c>
       <c r="G1" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="I1" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="J1" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="K1" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="L1" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="M1" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="N1" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="51" t="s">
+      <c r="O1" s="51" t="s">
         <v>79</v>
-      </c>
-      <c r="O1" s="51" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="41" customFormat="1" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -2037,23 +2037,23 @@
         <v>31</v>
       </c>
       <c r="E5" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="78" t="s">
+      <c r="G5" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="45" t="s">
         <v>82</v>
-      </c>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="45" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -2078,32 +2078,32 @@
     </row>
     <row r="9" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19"/>
-      <c r="B9" s="69" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="71"/>
+      <c r="B9" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="72"/>
+      <c r="D9" s="73"/>
       <c r="F9" s="19"/>
     </row>
     <row r="10" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="74"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
       <c r="F10" s="19"/>
     </row>
     <row r="11" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="19"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="74"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="76"/>
       <c r="F11" s="19"/>
     </row>
     <row r="12" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="19"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="77"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="79"/>
       <c r="F12" s="19"/>
     </row>
   </sheetData>
@@ -2176,10 +2176,10 @@
         <v>17</v>
       </c>
       <c r="K1" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" s="52" t="s">
         <v>85</v>
-      </c>
-      <c r="L1" s="52" t="s">
-        <v>86</v>
       </c>
       <c r="M1" s="8"/>
     </row>
@@ -2447,40 +2447,40 @@
     </row>
     <row r="20" spans="1:13" s="20" customFormat="1" ht="189" x14ac:dyDescent="0.15">
       <c r="A20" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20" s="43" t="s">
         <v>55</v>
       </c>
       <c r="C20" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20" s="43" t="s">
+      <c r="G20" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="G20" s="43" t="s">
+      <c r="H20" s="43" t="s">
         <v>67</v>
-      </c>
-      <c r="H20" s="43" t="s">
-        <v>68</v>
       </c>
       <c r="I20" s="43" t="s">
         <v>53</v>
       </c>
       <c r="J20" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K20" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="L20" s="43" t="s">
         <v>87</v>
-      </c>
-      <c r="L20" s="43" t="s">
-        <v>88</v>
       </c>
       <c r="M20" s="13"/>
     </row>
@@ -2494,7 +2494,7 @@
     </row>
     <row r="23" spans="1:13" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="80" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C23" s="81"/>
       <c r="D23" s="81"/>

--- a/chiloPro/template-series_english/structure-books_english.xlsx
+++ b/chiloPro/template-series_english/structure-books_english.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\chilo-producer\chiloPro\template-series_english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CHiLO-Producer_pri\chiloPro\template-series_english\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>version</t>
     <phoneticPr fontId="1"/>
@@ -67,10 +67,6 @@
   </si>
   <si>
     <t>series-introduction</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>series-url</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -214,13 +210,6 @@
   </si>
   <si>
     <t>* It will be inserted in the "Introducton" page of the "Readme" section.</t>
-  </si>
-  <si>
-    <t>URL of the series introduction page</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>* It will be inserted below the introduction text of the "Introduction" page.</t>
   </si>
   <si>
     <t>Name of "B. Inside cover" file of "essential materials"</t>
@@ -1713,7 +1702,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
@@ -1734,10 +1723,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D1" s="54" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1746,22 +1735,22 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="54" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="54" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1770,10 +1759,10 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="59" t="s">
         <v>41</v>
-      </c>
-      <c r="D4" s="59" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -1782,7 +1771,7 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="59"/>
     </row>
@@ -1792,17 +1781,17 @@
       </c>
       <c r="B6" s="29"/>
       <c r="C6" s="42" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D6" s="59"/>
     </row>
     <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="42" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D7" s="59"/>
     </row>
@@ -1812,7 +1801,7 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="59"/>
     </row>
@@ -1822,10 +1811,10 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="54" t="s">
         <v>45</v>
-      </c>
-      <c r="D9" s="54" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -1834,59 +1823,47 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="54" t="s">
         <v>47</v>
-      </c>
-      <c r="D10" s="54" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="C11" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="54" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="54" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="62"/>
+    </row>
+    <row r="13" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="61"/>
+      <c r="C13" s="62"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="63"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="65"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="63"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="65"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="66"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="68"/>
+      <c r="A15" s="66"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D4:D8"/>
-    <mergeCell ref="A14:C16"/>
+    <mergeCell ref="A13:C15"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1925,54 +1902,54 @@
   <sheetData>
     <row r="1" spans="1:15" s="41" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="G1" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="51" t="s">
+      <c r="J1" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="K1" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="L1" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="M1" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="N1" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="O1" s="51" t="s">
         <v>76</v>
-      </c>
-      <c r="M1" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="N1" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="O1" s="51" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="41" customFormat="1" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" s="31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="36"/>
@@ -2025,25 +2002,25 @@
     </row>
     <row r="5" spans="1:15" s="5" customFormat="1" ht="142.5" x14ac:dyDescent="0.15">
       <c r="A5" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="F5" s="55" t="s">
-        <v>61</v>
-      </c>
       <c r="G5" s="69" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H5" s="70"/>
       <c r="I5" s="70"/>
@@ -2053,7 +2030,7 @@
       <c r="M5" s="70"/>
       <c r="N5" s="70"/>
       <c r="O5" s="45" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -2079,7 +2056,7 @@
     <row r="9" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19"/>
       <c r="B9" s="71" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C9" s="72"/>
       <c r="D9" s="73"/>
@@ -2146,40 +2123,40 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="52" t="s">
+      <c r="D1" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="52" t="s">
+      <c r="J1" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="52" t="s">
-        <v>17</v>
-      </c>
       <c r="K1" s="52" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L1" s="52" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M1" s="8"/>
     </row>
@@ -2442,45 +2419,45 @@
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
       <c r="M19" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="20" customFormat="1" ht="189" x14ac:dyDescent="0.15">
       <c r="A20" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="43" t="s">
+      <c r="G20" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="43" t="s">
+      <c r="I20" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="K20" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="F20" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="H20" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="I20" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="J20" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="K20" s="43" t="s">
-        <v>86</v>
-      </c>
       <c r="L20" s="43" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M20" s="13"/>
     </row>
@@ -2494,7 +2471,7 @@
     </row>
     <row r="23" spans="1:13" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="80" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C23" s="81"/>
       <c r="D23" s="81"/>
@@ -2589,61 +2566,61 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="C1" s="21" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="23" t="b">
         <v>1</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="24"/>
       <c r="B4" s="24"/>
       <c r="C4" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="24"/>
       <c r="B5" s="24"/>
       <c r="C5" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="24"/>
       <c r="B6" s="24"/>
       <c r="C6" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="24"/>
       <c r="B7" s="24"/>
       <c r="C7" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
